--- a/Code/Results/Cases/Case_3_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.20511577940719</v>
+        <v>9.028827612820024</v>
       </c>
       <c r="C2">
-        <v>6.458316111354002</v>
+        <v>5.175968639971936</v>
       </c>
       <c r="D2">
-        <v>8.508115622573415</v>
+        <v>11.05644877430328</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.07980560931135</v>
+        <v>31.06654833518582</v>
       </c>
       <c r="G2">
-        <v>21.48715937765923</v>
+        <v>30.01926160710828</v>
       </c>
       <c r="H2">
-        <v>8.828080887846095</v>
+        <v>14.70340521749531</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.023643401949293</v>
+        <v>11.42470144892342</v>
       </c>
       <c r="K2">
-        <v>10.79278373684908</v>
+        <v>8.317913269145972</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.11605472115762</v>
+        <v>15.66587606172371</v>
       </c>
       <c r="N2">
-        <v>12.33821984991875</v>
+        <v>19.00013952161483</v>
       </c>
       <c r="O2">
-        <v>14.25409056754293</v>
+        <v>22.53067573583771</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.42553712551287</v>
+        <v>8.7639846002581</v>
       </c>
       <c r="C3">
-        <v>6.22541521960009</v>
+        <v>5.078149553523112</v>
       </c>
       <c r="D3">
-        <v>8.164539173893195</v>
+        <v>11.01323591665296</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.82988254055313</v>
+        <v>31.12002960576156</v>
       </c>
       <c r="G3">
-        <v>21.26300354924425</v>
+        <v>30.09123711214846</v>
       </c>
       <c r="H3">
-        <v>8.88709028232209</v>
+        <v>14.74589491319978</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.970532223545778</v>
+        <v>11.4425112782153</v>
       </c>
       <c r="K3">
-        <v>10.21243393751942</v>
+        <v>8.140788427361215</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.58260345171975</v>
+        <v>15.58838201403844</v>
       </c>
       <c r="N3">
-        <v>12.51376556434861</v>
+        <v>19.05455838189547</v>
       </c>
       <c r="O3">
-        <v>14.28263586192089</v>
+        <v>22.59977026413126</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.9188807901248</v>
+        <v>8.598603619572538</v>
       </c>
       <c r="C4">
-        <v>6.077663025997975</v>
+        <v>5.016690329056214</v>
       </c>
       <c r="D4">
-        <v>7.949865528776994</v>
+        <v>10.98862081234335</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.69114986433316</v>
+        <v>31.15949652280302</v>
       </c>
       <c r="G4">
-        <v>21.14606562688057</v>
+        <v>30.14352287993433</v>
       </c>
       <c r="H4">
-        <v>8.927915731183653</v>
+        <v>14.7739830155486</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.941326456378158</v>
+        <v>11.45507590535954</v>
       </c>
       <c r="K4">
-        <v>9.838115539060963</v>
+        <v>8.031118459560282</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.24668527186695</v>
+        <v>15.54312141005612</v>
       </c>
       <c r="N4">
-        <v>12.62422937526467</v>
+        <v>19.08957656553372</v>
       </c>
       <c r="O4">
-        <v>14.31057797408013</v>
+        <v>22.64628819388755</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.70536850986194</v>
+        <v>8.53061922770293</v>
       </c>
       <c r="C5">
-        <v>6.016317916812818</v>
+        <v>4.99131529361111</v>
       </c>
       <c r="D5">
-        <v>7.861584408021336</v>
+        <v>10.97907995758214</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.6382857896199</v>
+        <v>31.17724481785702</v>
       </c>
       <c r="G5">
-        <v>21.10350599283533</v>
+        <v>30.16685896161711</v>
       </c>
       <c r="H5">
-        <v>8.945674457038434</v>
+        <v>14.7859321783121</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.93027225196955</v>
+        <v>11.46060595648801</v>
       </c>
       <c r="K5">
-        <v>9.681125431373459</v>
+        <v>7.986257844927544</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.10788515308631</v>
+        <v>15.52527529551741</v>
       </c>
       <c r="N5">
-        <v>12.66993204317383</v>
+        <v>19.10425141977456</v>
       </c>
       <c r="O5">
-        <v>14.3244933042908</v>
+        <v>22.66627308609723</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.66948934645252</v>
+        <v>8.519298032376808</v>
       </c>
       <c r="C6">
-        <v>6.006064942572046</v>
+        <v>4.987082512485241</v>
       </c>
       <c r="D6">
-        <v>7.8468813029967</v>
+        <v>10.97752551662808</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.62972831945298</v>
+        <v>31.1802924232126</v>
       </c>
       <c r="G6">
-        <v>21.09674307616417</v>
+        <v>30.17085628039779</v>
       </c>
       <c r="H6">
-        <v>8.948690108122571</v>
+        <v>14.78794671861331</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.92848760466573</v>
+        <v>11.46154897570815</v>
       </c>
       <c r="K6">
-        <v>9.654790796929118</v>
+        <v>7.978800369268139</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.08472832496994</v>
+        <v>15.52234847946458</v>
       </c>
       <c r="N6">
-        <v>12.67756288698263</v>
+        <v>19.10671264173223</v>
       </c>
       <c r="O6">
-        <v>14.32695402660815</v>
+        <v>22.66965365104755</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.91602982109449</v>
+        <v>8.597689004117131</v>
       </c>
       <c r="C7">
-        <v>6.076840215670839</v>
+        <v>5.016349418990328</v>
       </c>
       <c r="D7">
-        <v>7.948677988784966</v>
+        <v>10.98849014720252</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.69042210797558</v>
+        <v>31.15972914280809</v>
       </c>
       <c r="G7">
-        <v>21.14547118758789</v>
+        <v>30.14382939032049</v>
       </c>
       <c r="H7">
-        <v>8.928150731153478</v>
+        <v>14.77414212897154</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.941173957133922</v>
+        <v>11.45514882586538</v>
       </c>
       <c r="K7">
-        <v>9.836016238894146</v>
+        <v>8.030514056982188</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.24482082370582</v>
+        <v>15.54287829171158</v>
       </c>
       <c r="N7">
-        <v>12.62484293400255</v>
+        <v>19.08977283580327</v>
       </c>
       <c r="O7">
-        <v>14.31075552158161</v>
+        <v>22.64655355418589</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.94212054324754</v>
+        <v>8.938144881908833</v>
       </c>
       <c r="C8">
-        <v>6.379031332428641</v>
+        <v>5.142543431195303</v>
       </c>
       <c r="D8">
-        <v>8.390498049763954</v>
+        <v>11.04115577029033</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.99056139152652</v>
+        <v>31.08361185114858</v>
       </c>
       <c r="G8">
-        <v>21.40551425597945</v>
+        <v>30.04239589470331</v>
       </c>
       <c r="H8">
-        <v>8.847453654590694</v>
+        <v>14.7176409020703</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.004619185999547</v>
+        <v>11.43050422021911</v>
       </c>
       <c r="K8">
-        <v>10.59644753455188</v>
+        <v>8.257066255491601</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.93396881908976</v>
+        <v>15.63868318170676</v>
       </c>
       <c r="N8">
-        <v>12.39820099744196</v>
+        <v>19.01857075123857</v>
       </c>
       <c r="O8">
-        <v>14.26171695180479</v>
+        <v>22.55364936523258</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.73282261461548</v>
+        <v>9.579566762994093</v>
       </c>
       <c r="C9">
-        <v>6.931674548972302</v>
+        <v>5.378017785762387</v>
       </c>
       <c r="D9">
-        <v>9.222250216564913</v>
+        <v>11.15928430406101</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.69680950199363</v>
+        <v>30.98700892211799</v>
       </c>
       <c r="G9">
-        <v>22.08369723226258</v>
+        <v>29.90792645051743</v>
       </c>
       <c r="H9">
-        <v>8.727206360063136</v>
+        <v>14.62269174981832</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.156376403297349</v>
+        <v>11.39509614757702</v>
       </c>
       <c r="K9">
-        <v>11.94274124580578</v>
+        <v>8.691521330119459</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.21161095851054</v>
+        <v>15.84431199687321</v>
       </c>
       <c r="N9">
-        <v>11.97432549362744</v>
+        <v>18.89162482598436</v>
       </c>
       <c r="O9">
-        <v>14.25222882843522</v>
+        <v>22.4039850392055</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.91470880951974</v>
+        <v>10.02966061733435</v>
       </c>
       <c r="C10">
-        <v>7.310783261085929</v>
+        <v>5.542578669922527</v>
       </c>
       <c r="D10">
-        <v>9.806314722346366</v>
+        <v>11.25460463087819</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.28796816936714</v>
+        <v>30.94820226971435</v>
       </c>
       <c r="G10">
-        <v>22.68879807178587</v>
+        <v>29.84869459387691</v>
       </c>
       <c r="H10">
-        <v>8.664269434486526</v>
+        <v>14.56257616020193</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.284904826335128</v>
+        <v>11.37694575505755</v>
       </c>
       <c r="K10">
-        <v>12.84146996168879</v>
+        <v>9.001494437986599</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.09721530199287</v>
+        <v>16.00528319733916</v>
       </c>
       <c r="N10">
-        <v>11.67445017629542</v>
+        <v>18.80601438653344</v>
       </c>
       <c r="O10">
-        <v>14.30359104929881</v>
+        <v>22.31390409642875</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.42368977554589</v>
+        <v>10.22888130343982</v>
       </c>
       <c r="C11">
-        <v>7.476985102071532</v>
+        <v>5.615390478016069</v>
       </c>
       <c r="D11">
-        <v>10.06518185313617</v>
+        <v>11.29969960919308</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.57254110555168</v>
+        <v>30.93753669617863</v>
       </c>
       <c r="G11">
-        <v>22.98784684187073</v>
+        <v>29.8303843733115</v>
       </c>
       <c r="H11">
-        <v>8.641672579200161</v>
+        <v>14.53731812062769</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.347128693448658</v>
+        <v>11.37039259288481</v>
       </c>
       <c r="K11">
-        <v>13.23048032815791</v>
+        <v>9.139880347123942</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.52753319765273</v>
+        <v>16.08045192533272</v>
       </c>
       <c r="N11">
-        <v>11.54030821002636</v>
+        <v>18.76871480719017</v>
       </c>
       <c r="O11">
-        <v>14.34078235901991</v>
+        <v>22.27725036075044</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.61233722947914</v>
+        <v>10.30345714093136</v>
       </c>
       <c r="C12">
-        <v>7.538993813626552</v>
+        <v>5.642651178653241</v>
       </c>
       <c r="D12">
-        <v>10.16216207925205</v>
+        <v>11.31701425494616</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.68253715959138</v>
+        <v>30.93450211873496</v>
       </c>
       <c r="G12">
-        <v>23.10453456301866</v>
+        <v>29.8246948616803</v>
       </c>
       <c r="H12">
-        <v>8.634028507730953</v>
+        <v>14.52805366029908</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.371234111350949</v>
+        <v>11.36815563215169</v>
       </c>
       <c r="K12">
-        <v>13.37492964710057</v>
+        <v>9.19185846615064</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.70841590645667</v>
+        <v>16.10917716509602</v>
       </c>
       <c r="N12">
-        <v>11.4898196626229</v>
+        <v>18.75482582359886</v>
       </c>
       <c r="O12">
-        <v>14.35694698834314</v>
+        <v>22.26399318747038</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.57189014823976</v>
+        <v>10.28743539208579</v>
       </c>
       <c r="C13">
-        <v>7.525680818842995</v>
+        <v>5.636794215357471</v>
       </c>
       <c r="D13">
-        <v>10.14132314536156</v>
+        <v>11.3132748246081</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.65874846713246</v>
+        <v>30.93511102038628</v>
       </c>
       <c r="G13">
-        <v>23.07925032429211</v>
+        <v>29.82586483326472</v>
       </c>
       <c r="H13">
-        <v>8.635633454347408</v>
+        <v>14.53003557819058</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.366018413133</v>
+        <v>11.36862653075305</v>
       </c>
       <c r="K13">
-        <v>13.34394719963079</v>
+        <v>9.180683714991385</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.66962796536648</v>
+        <v>16.10297938962241</v>
       </c>
       <c r="N13">
-        <v>11.50067987901835</v>
+        <v>18.75780660398922</v>
       </c>
       <c r="O13">
-        <v>14.35337163034706</v>
+        <v>22.26682064347608</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.43929175911541</v>
+        <v>10.23503440633902</v>
       </c>
       <c r="C14">
-        <v>7.482105347422829</v>
+        <v>5.617639570056386</v>
       </c>
       <c r="D14">
-        <v>10.07318179529493</v>
+        <v>11.30111938734455</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.5815458736821</v>
+        <v>30.93726691841229</v>
       </c>
       <c r="G14">
-        <v>22.99737768354932</v>
+        <v>29.82989134709789</v>
       </c>
       <c r="H14">
-        <v>8.641025135611082</v>
+        <v>14.5365499121466</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.349100974236642</v>
+        <v>11.37020365747792</v>
       </c>
       <c r="K14">
-        <v>13.24242161836591</v>
+        <v>9.144165414431338</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.54249046037799</v>
+        <v>16.08281005689842</v>
       </c>
       <c r="N14">
-        <v>11.53614842229352</v>
+        <v>18.76756743689649</v>
       </c>
       <c r="O14">
-        <v>14.34206999933337</v>
+        <v>22.27614719813235</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.35753935789271</v>
+        <v>10.20282273267617</v>
       </c>
       <c r="C15">
-        <v>7.45529245328395</v>
+        <v>5.60586573582262</v>
       </c>
       <c r="D15">
-        <v>10.03130513515298</v>
+        <v>11.29370451056046</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.53454749118999</v>
+        <v>30.93871822372438</v>
       </c>
       <c r="G15">
-        <v>22.94767740510987</v>
+        <v>29.83251979221852</v>
       </c>
       <c r="H15">
-        <v>8.644447954071182</v>
+        <v>14.54057922135231</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.338809279289242</v>
+        <v>11.37120153206641</v>
       </c>
       <c r="K15">
-        <v>13.17986158809923</v>
+        <v>9.121740089205973</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.46412136805074</v>
+        <v>16.0704891148598</v>
       </c>
       <c r="N15">
-        <v>11.55791348310676</v>
+        <v>18.77357687604729</v>
       </c>
       <c r="O15">
-        <v>14.33542116802354</v>
+        <v>22.28194111592446</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.8808713461708</v>
+        <v>10.01652370167615</v>
       </c>
       <c r="C16">
-        <v>7.299793119884137</v>
+        <v>5.53777755453815</v>
       </c>
       <c r="D16">
-        <v>9.789253915324551</v>
+        <v>11.25169150693329</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.26968432977245</v>
+        <v>30.94903986372527</v>
       </c>
       <c r="G16">
-        <v>22.66973549981032</v>
+        <v>29.8500651944312</v>
       </c>
       <c r="H16">
-        <v>8.66587142682233</v>
+        <v>14.56426885147252</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.280914156085207</v>
+        <v>11.37740826748608</v>
       </c>
       <c r="K16">
-        <v>12.81564729508189</v>
+        <v>8.992393600051843</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.0714578833031</v>
+        <v>16.00040822679659</v>
       </c>
       <c r="N16">
-        <v>11.68326082290536</v>
+        <v>18.80848501866759</v>
       </c>
       <c r="O16">
-        <v>14.30144671158856</v>
+        <v>22.3163866066627</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.58112923700271</v>
+        <v>9.900767313740582</v>
       </c>
       <c r="C17">
-        <v>7.202774881318925</v>
+        <v>5.495470664892718</v>
       </c>
       <c r="D17">
-        <v>9.638964564332751</v>
+        <v>11.22635405865842</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.111198137092</v>
+        <v>30.95716134185573</v>
       </c>
       <c r="G17">
-        <v>22.50534033053429</v>
+        <v>29.86304231307588</v>
       </c>
       <c r="H17">
-        <v>8.680590954322168</v>
+        <v>14.57933655938166</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.246361318184675</v>
+        <v>11.3816519600545</v>
       </c>
       <c r="K17">
-        <v>12.58712666923311</v>
+        <v>8.9123364787488</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.84428461374073</v>
+        <v>15.95790005132991</v>
       </c>
       <c r="N17">
-        <v>11.76072642278855</v>
+        <v>18.83032065444807</v>
       </c>
       <c r="O17">
-        <v>14.2842123839187</v>
+        <v>22.33862610519606</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.40602548118008</v>
+        <v>9.833670560102973</v>
       </c>
       <c r="C18">
-        <v>7.146385033582063</v>
+        <v>5.470945065567119</v>
       </c>
       <c r="D18">
-        <v>9.551882685493448</v>
+        <v>11.21194446245763</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.02151563394404</v>
+        <v>30.96249039201083</v>
       </c>
       <c r="G18">
-        <v>22.41302279799081</v>
+        <v>29.87131904101686</v>
       </c>
       <c r="H18">
-        <v>8.689622311052629</v>
+        <v>14.58819972786349</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.226840840932894</v>
+        <v>11.38425319226677</v>
       </c>
       <c r="K18">
-        <v>12.45382162470872</v>
+        <v>8.866045598109176</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.71242087134916</v>
+        <v>15.93363442815362</v>
       </c>
       <c r="N18">
-        <v>11.80549768603436</v>
+        <v>18.84303483234289</v>
       </c>
       <c r="O18">
-        <v>14.2755956053764</v>
+        <v>22.35182467038623</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.34627377456989</v>
+        <v>9.81086623890652</v>
       </c>
       <c r="C19">
-        <v>7.127192446766125</v>
+        <v>5.462608717077947</v>
       </c>
       <c r="D19">
-        <v>9.522290621475006</v>
+        <v>11.20709409097983</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.99140435515752</v>
+        <v>30.96440770217553</v>
       </c>
       <c r="G19">
-        <v>22.38214914332109</v>
+        <v>29.87426087966305</v>
       </c>
       <c r="H19">
-        <v>8.69277587704835</v>
+        <v>14.59123441931052</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.220292150720235</v>
+        <v>11.38516147974973</v>
       </c>
       <c r="K19">
-        <v>12.40836674380191</v>
+        <v>8.850331902599782</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.66757085041453</v>
+        <v>15.92545066564112</v>
       </c>
       <c r="N19">
-        <v>11.82069396671172</v>
+        <v>18.84736626892296</v>
       </c>
       <c r="O19">
-        <v>14.27289783424328</v>
+        <v>22.35636334972688</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.61331653360904</v>
+        <v>9.913143786268078</v>
       </c>
       <c r="C20">
-        <v>7.213163667965891</v>
+        <v>5.499994282960022</v>
       </c>
       <c r="D20">
-        <v>9.655029810518004</v>
+        <v>11.22903439621002</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.12791675460839</v>
+        <v>30.95622872032517</v>
       </c>
       <c r="G20">
-        <v>22.52260861569686</v>
+        <v>29.86157675146319</v>
       </c>
       <c r="H20">
-        <v>8.678965230668236</v>
+        <v>14.57771222774886</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.250002930522224</v>
+        <v>11.38118361640282</v>
       </c>
       <c r="K20">
-        <v>12.61164629791449</v>
+        <v>8.920884325779117</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.86859241762124</v>
+        <v>15.96240621542107</v>
       </c>
       <c r="N20">
-        <v>11.75245794844176</v>
+        <v>18.82798018966336</v>
       </c>
       <c r="O20">
-        <v>14.28591220307824</v>
+        <v>22.33621654326863</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.4783499447766</v>
+        <v>10.25044983403513</v>
       </c>
       <c r="C21">
-        <v>7.494929917656165</v>
+        <v>5.623274339660179</v>
       </c>
       <c r="D21">
-        <v>10.09322544571078</v>
+        <v>11.30468336063652</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.60416165518023</v>
+        <v>30.93660643137943</v>
       </c>
       <c r="G21">
-        <v>23.0213320487131</v>
+        <v>29.82867487977078</v>
       </c>
       <c r="H21">
-        <v>8.639416323042839</v>
+        <v>14.53462834799583</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.354055293510446</v>
+        <v>11.36973378270234</v>
       </c>
       <c r="K21">
-        <v>13.27231981618868</v>
+        <v>9.154903645941639</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.57993664667674</v>
+        <v>16.08872736142812</v>
       </c>
       <c r="N21">
-        <v>11.52572224300487</v>
+        <v>18.76469405858969</v>
       </c>
       <c r="O21">
-        <v>14.34533235125038</v>
+        <v>22.27339085316854</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.0198599582965</v>
+        <v>10.46583122314476</v>
       </c>
       <c r="C22">
-        <v>7.673659619289055</v>
+        <v>5.702021895699424</v>
       </c>
       <c r="D22">
-        <v>10.37348561102551</v>
+        <v>11.35550709249551</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.92842915986477</v>
+        <v>30.92963497700007</v>
       </c>
       <c r="G22">
-        <v>23.36735671866598</v>
+        <v>29.81442419368351</v>
       </c>
       <c r="H22">
-        <v>8.618912065087285</v>
+        <v>14.50822032769972</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.42522291263904</v>
+        <v>11.36367602817076</v>
       </c>
       <c r="K22">
-        <v>13.6874354833264</v>
+        <v>9.305347798321584</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.09939751632841</v>
+        <v>16.172794791162</v>
       </c>
       <c r="N22">
-        <v>11.37932390537703</v>
+        <v>18.72470546882947</v>
       </c>
       <c r="O22">
-        <v>14.39633873243601</v>
+        <v>22.23596118075524</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.73301679755174</v>
+        <v>10.35136300654654</v>
       </c>
       <c r="C23">
-        <v>7.578772420825612</v>
+        <v>5.660165008764576</v>
       </c>
       <c r="D23">
-        <v>10.22448473314191</v>
+        <v>11.32825874445778</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.75417711634403</v>
+        <v>30.93282057181001</v>
       </c>
       <c r="G23">
-        <v>23.18083452524974</v>
+        <v>29.82136581388931</v>
       </c>
       <c r="H23">
-        <v>8.629351219800625</v>
+        <v>14.52215473281228</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.386949288930812</v>
+        <v>11.36677888789025</v>
       </c>
       <c r="K23">
-        <v>13.46740737915968</v>
+        <v>9.225296933455205</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.82416373584852</v>
+        <v>16.12779463365132</v>
       </c>
       <c r="N23">
-        <v>11.45730239626974</v>
+        <v>18.74592286934174</v>
       </c>
       <c r="O23">
-        <v>14.36797175005866</v>
+        <v>22.25560561348216</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.59877331193609</v>
+        <v>9.907550081032547</v>
       </c>
       <c r="C24">
-        <v>7.208468803938815</v>
+        <v>5.497949785628894</v>
       </c>
       <c r="D24">
-        <v>9.647768821092098</v>
+        <v>11.2278221249851</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.12035380195982</v>
+        <v>30.95664830293608</v>
       </c>
       <c r="G24">
-        <v>22.5147947876219</v>
+        <v>29.86223679026556</v>
       </c>
       <c r="H24">
-        <v>8.679698451726505</v>
+        <v>14.57844596338898</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.24835548502302</v>
+        <v>11.38139485155646</v>
       </c>
       <c r="K24">
-        <v>12.60056697046822</v>
+        <v>8.917020665747684</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.85760677385973</v>
+        <v>15.96036843866828</v>
       </c>
       <c r="N24">
-        <v>11.75619539151164</v>
+        <v>18.82903781351558</v>
       </c>
       <c r="O24">
-        <v>14.28513969926696</v>
+        <v>22.33730462050168</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.27198420766657</v>
+        <v>9.409415489658009</v>
       </c>
       <c r="C25">
-        <v>6.786735675550627</v>
+        <v>5.315720508366059</v>
       </c>
       <c r="D25">
-        <v>9.001611960216191</v>
+        <v>11.12578943403433</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.4930615440328</v>
+        <v>31.00749624145874</v>
       </c>
       <c r="G25">
-        <v>21.88171196859451</v>
+        <v>29.93737371024552</v>
       </c>
       <c r="H25">
-        <v>8.755443204837587</v>
+        <v>14.6466831570744</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.112352452619423</v>
+        <v>11.40329286815645</v>
       </c>
       <c r="K25">
-        <v>11.5943025869149</v>
+        <v>8.575385849012971</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.87479572715874</v>
+        <v>15.78687646770586</v>
       </c>
       <c r="N25">
-        <v>12.0868931822499</v>
+        <v>18.92461715312961</v>
       </c>
       <c r="O25">
-        <v>14.24494675683948</v>
+        <v>22.44098607698325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.028827612820024</v>
+        <v>12.20511577940723</v>
       </c>
       <c r="C2">
-        <v>5.175968639971936</v>
+        <v>6.458316111354025</v>
       </c>
       <c r="D2">
-        <v>11.05644877430328</v>
+        <v>8.508115622573452</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.06654833518582</v>
+        <v>21.07980560931122</v>
       </c>
       <c r="G2">
-        <v>30.01926160710828</v>
+        <v>21.48715937765896</v>
       </c>
       <c r="H2">
-        <v>14.70340521749531</v>
+        <v>8.82808088784604</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.42470144892342</v>
+        <v>7.023643401949246</v>
       </c>
       <c r="K2">
-        <v>8.317913269145972</v>
+        <v>10.79278373684914</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.66587606172371</v>
+        <v>12.1160547211576</v>
       </c>
       <c r="N2">
-        <v>19.00013952161483</v>
+        <v>12.33821984991866</v>
       </c>
       <c r="O2">
-        <v>22.53067573583771</v>
+        <v>14.25409056754276</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.7639846002581</v>
+        <v>11.42553712551288</v>
       </c>
       <c r="C3">
-        <v>5.078149553523112</v>
+        <v>6.22541521960009</v>
       </c>
       <c r="D3">
-        <v>11.01323591665296</v>
+        <v>8.164539173893214</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.12002960576156</v>
+        <v>20.82988254055322</v>
       </c>
       <c r="G3">
-        <v>30.09123711214846</v>
+        <v>21.26300354924461</v>
       </c>
       <c r="H3">
-        <v>14.74589491319978</v>
+        <v>8.887090282322095</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.4425112782153</v>
+        <v>6.970532223545743</v>
       </c>
       <c r="K3">
-        <v>8.140788427361215</v>
+        <v>10.2124339375194</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.58838201403844</v>
+        <v>11.58260345171975</v>
       </c>
       <c r="N3">
-        <v>19.05455838189547</v>
+        <v>12.51376556434865</v>
       </c>
       <c r="O3">
-        <v>22.59977026413126</v>
+        <v>14.28263586192097</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.598603619572538</v>
+        <v>10.9188807901248</v>
       </c>
       <c r="C4">
-        <v>5.016690329056214</v>
+        <v>6.077663025998075</v>
       </c>
       <c r="D4">
-        <v>10.98862081234335</v>
+        <v>7.949865528777004</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.15949652280302</v>
+        <v>20.69114986433295</v>
       </c>
       <c r="G4">
-        <v>30.14352287993433</v>
+        <v>21.14606562688018</v>
       </c>
       <c r="H4">
-        <v>14.7739830155486</v>
+        <v>8.927915731183653</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.45507590535954</v>
+        <v>6.941326456378237</v>
       </c>
       <c r="K4">
-        <v>8.031118459560282</v>
+        <v>9.838115539061015</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.54312141005612</v>
+        <v>11.24668527186695</v>
       </c>
       <c r="N4">
-        <v>19.08957656553372</v>
+        <v>12.62422937526463</v>
       </c>
       <c r="O4">
-        <v>22.64628819388755</v>
+        <v>14.31057797407999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.53061922770293</v>
+        <v>10.70536850986186</v>
       </c>
       <c r="C5">
-        <v>4.99131529361111</v>
+        <v>6.016317916812717</v>
       </c>
       <c r="D5">
-        <v>10.97907995758214</v>
+        <v>7.861584408021306</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.17724481785702</v>
+        <v>20.63828578961993</v>
       </c>
       <c r="G5">
-        <v>30.16685896161711</v>
+        <v>21.10350599283542</v>
       </c>
       <c r="H5">
-        <v>14.7859321783121</v>
+        <v>8.945674457038427</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.46060595648801</v>
+        <v>6.930272251969607</v>
       </c>
       <c r="K5">
-        <v>7.986257844927544</v>
+        <v>9.681125431373417</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.52527529551741</v>
+        <v>11.10788515308634</v>
       </c>
       <c r="N5">
-        <v>19.10425141977456</v>
+        <v>12.66993204317383</v>
       </c>
       <c r="O5">
-        <v>22.66627308609723</v>
+        <v>14.32449330429081</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.519298032376808</v>
+        <v>10.66948934645252</v>
       </c>
       <c r="C6">
-        <v>4.987082512485241</v>
+        <v>6.006064942572068</v>
       </c>
       <c r="D6">
-        <v>10.97752551662808</v>
+        <v>7.846881302996625</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.1802924232126</v>
+        <v>20.62972831945296</v>
       </c>
       <c r="G6">
-        <v>30.17085628039779</v>
+        <v>21.09674307616412</v>
       </c>
       <c r="H6">
-        <v>14.78794671861331</v>
+        <v>8.948690108122575</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.46154897570815</v>
+        <v>6.928487604665783</v>
       </c>
       <c r="K6">
-        <v>7.978800369268139</v>
+        <v>9.654790796929118</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.52234847946458</v>
+        <v>11.08472832496995</v>
       </c>
       <c r="N6">
-        <v>19.10671264173223</v>
+        <v>12.67756288698266</v>
       </c>
       <c r="O6">
-        <v>22.66965365104755</v>
+        <v>14.32695402660819</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.597689004117131</v>
+        <v>10.91602982109451</v>
       </c>
       <c r="C7">
-        <v>5.016349418990328</v>
+        <v>6.076840215671029</v>
       </c>
       <c r="D7">
-        <v>10.98849014720252</v>
+        <v>7.948677988784924</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.15972914280809</v>
+        <v>20.69042210797551</v>
       </c>
       <c r="G7">
-        <v>30.14382939032049</v>
+        <v>21.14547118758777</v>
       </c>
       <c r="H7">
-        <v>14.77414212897154</v>
+        <v>8.928150731153481</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.45514882586538</v>
+        <v>6.941173957133927</v>
       </c>
       <c r="K7">
-        <v>8.030514056982188</v>
+        <v>9.836016238894212</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.54287829171158</v>
+        <v>11.24482082370581</v>
       </c>
       <c r="N7">
-        <v>19.08977283580327</v>
+        <v>12.62484293400255</v>
       </c>
       <c r="O7">
-        <v>22.64655355418589</v>
+        <v>14.31075552158155</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.938144881908833</v>
+        <v>11.94212054324763</v>
       </c>
       <c r="C8">
-        <v>5.142543431195303</v>
+        <v>6.379031332428448</v>
       </c>
       <c r="D8">
-        <v>11.04115577029033</v>
+        <v>8.390498049763963</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.08361185114858</v>
+        <v>20.99056139152636</v>
       </c>
       <c r="G8">
-        <v>30.04239589470331</v>
+        <v>21.40551425597926</v>
       </c>
       <c r="H8">
-        <v>14.7176409020703</v>
+        <v>8.847453654590568</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.43050422021911</v>
+        <v>7.00461918599953</v>
       </c>
       <c r="K8">
-        <v>8.257066255491601</v>
+        <v>10.59644753455195</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.63868318170676</v>
+        <v>11.93396881908972</v>
       </c>
       <c r="N8">
-        <v>19.01857075123857</v>
+        <v>12.39820099744193</v>
       </c>
       <c r="O8">
-        <v>22.55364936523258</v>
+        <v>14.26171695180462</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.579566762994093</v>
+        <v>13.73282261461554</v>
       </c>
       <c r="C9">
-        <v>5.378017785762387</v>
+        <v>6.931674548972236</v>
       </c>
       <c r="D9">
-        <v>11.15928430406101</v>
+        <v>9.222250216564918</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.98700892211799</v>
+        <v>21.69680950199353</v>
       </c>
       <c r="G9">
-        <v>29.90792645051743</v>
+        <v>22.08369723226245</v>
       </c>
       <c r="H9">
-        <v>14.62269174981832</v>
+        <v>8.727206360063077</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.39509614757702</v>
+        <v>7.156376403297335</v>
       </c>
       <c r="K9">
-        <v>8.691521330119459</v>
+        <v>11.9427412458058</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.84431199687321</v>
+        <v>13.21161095851053</v>
       </c>
       <c r="N9">
-        <v>18.89162482598436</v>
+        <v>11.97432549362737</v>
       </c>
       <c r="O9">
-        <v>22.4039850392055</v>
+        <v>14.2522288284351</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.02966061733435</v>
+        <v>14.91470880951969</v>
       </c>
       <c r="C10">
-        <v>5.542578669922527</v>
+        <v>7.310783261086002</v>
       </c>
       <c r="D10">
-        <v>11.25460463087819</v>
+        <v>9.806314722346396</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.94820226971435</v>
+        <v>22.28796816936723</v>
       </c>
       <c r="G10">
-        <v>29.84869459387691</v>
+        <v>22.68879807178587</v>
       </c>
       <c r="H10">
-        <v>14.56257616020193</v>
+        <v>8.664269434486641</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.37694575505755</v>
+        <v>7.284904826335131</v>
       </c>
       <c r="K10">
-        <v>9.001494437986599</v>
+        <v>12.84146996168873</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.00528319733916</v>
+        <v>14.09721530199286</v>
       </c>
       <c r="N10">
-        <v>18.80601438653344</v>
+        <v>11.67445017629545</v>
       </c>
       <c r="O10">
-        <v>22.31390409642875</v>
+        <v>14.30359104929889</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.22888130343982</v>
+        <v>15.42368977554588</v>
       </c>
       <c r="C11">
-        <v>5.615390478016069</v>
+        <v>7.476985102071724</v>
       </c>
       <c r="D11">
-        <v>11.29969960919308</v>
+        <v>10.06518185313619</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.93753669617863</v>
+        <v>22.57254110555155</v>
       </c>
       <c r="G11">
-        <v>29.8303843733115</v>
+        <v>22.98784684187044</v>
       </c>
       <c r="H11">
-        <v>14.53731812062769</v>
+        <v>8.641672579200161</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.37039259288481</v>
+        <v>7.347128693448626</v>
       </c>
       <c r="K11">
-        <v>9.139880347123942</v>
+        <v>13.23048032815797</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.08045192533272</v>
+        <v>14.52753319765278</v>
       </c>
       <c r="N11">
-        <v>18.76871480719017</v>
+        <v>11.5403082100263</v>
       </c>
       <c r="O11">
-        <v>22.27725036075044</v>
+        <v>14.34078235901976</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.30345714093136</v>
+        <v>15.6123372294792</v>
       </c>
       <c r="C12">
-        <v>5.642651178653241</v>
+        <v>7.538993813626524</v>
       </c>
       <c r="D12">
-        <v>11.31701425494616</v>
+        <v>10.16216207925206</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.93450211873496</v>
+        <v>22.68253715959138</v>
       </c>
       <c r="G12">
-        <v>29.8246948616803</v>
+        <v>23.10453456301865</v>
       </c>
       <c r="H12">
-        <v>14.52805366029908</v>
+        <v>8.63402850773096</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.36815563215169</v>
+        <v>7.371234111350922</v>
       </c>
       <c r="K12">
-        <v>9.19185846615064</v>
+        <v>13.37492964710055</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.10917716509602</v>
+        <v>14.70841590645666</v>
       </c>
       <c r="N12">
-        <v>18.75482582359886</v>
+        <v>11.48981966262287</v>
       </c>
       <c r="O12">
-        <v>22.26399318747038</v>
+        <v>14.35694698834312</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.28743539208579</v>
+        <v>15.57189014823976</v>
       </c>
       <c r="C13">
-        <v>5.636794215357471</v>
+        <v>7.525680818843007</v>
       </c>
       <c r="D13">
-        <v>11.3132748246081</v>
+        <v>10.14132314536153</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.93511102038628</v>
+        <v>22.65874846713241</v>
       </c>
       <c r="G13">
-        <v>29.82586483326472</v>
+        <v>23.07925032429218</v>
       </c>
       <c r="H13">
-        <v>14.53003557819058</v>
+        <v>8.635633454347353</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.36862653075305</v>
+        <v>7.366018413132984</v>
       </c>
       <c r="K13">
-        <v>9.180683714991385</v>
+        <v>13.34394719963079</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.10297938962241</v>
+        <v>14.66962796536649</v>
       </c>
       <c r="N13">
-        <v>18.75780660398922</v>
+        <v>11.50067987901835</v>
       </c>
       <c r="O13">
-        <v>22.26682064347608</v>
+        <v>14.35337163034706</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.23503440633902</v>
+        <v>15.43929175911545</v>
       </c>
       <c r="C14">
-        <v>5.617639570056386</v>
+        <v>7.482105347422912</v>
       </c>
       <c r="D14">
-        <v>11.30111938734455</v>
+        <v>10.07318179529492</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.93726691841229</v>
+        <v>22.581545873682</v>
       </c>
       <c r="G14">
-        <v>29.82989134709789</v>
+        <v>22.99737768354918</v>
       </c>
       <c r="H14">
-        <v>14.5365499121466</v>
+        <v>8.641025135610979</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.37020365747792</v>
+        <v>7.349100974236554</v>
       </c>
       <c r="K14">
-        <v>9.144165414431338</v>
+        <v>13.24242161836593</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.08281005689842</v>
+        <v>14.54249046037804</v>
       </c>
       <c r="N14">
-        <v>18.76756743689649</v>
+        <v>11.53614842229345</v>
       </c>
       <c r="O14">
-        <v>22.27614719813235</v>
+        <v>14.34206999933326</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.20282273267617</v>
+        <v>15.35753935789274</v>
       </c>
       <c r="C15">
-        <v>5.60586573582262</v>
+        <v>7.455292453283866</v>
       </c>
       <c r="D15">
-        <v>11.29370451056046</v>
+        <v>10.03130513515297</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.93871822372438</v>
+        <v>22.53454749118992</v>
       </c>
       <c r="G15">
-        <v>29.83251979221852</v>
+        <v>22.94767740510976</v>
       </c>
       <c r="H15">
-        <v>14.54057922135231</v>
+        <v>8.644447954071182</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.37120153206641</v>
+        <v>7.338809279289245</v>
       </c>
       <c r="K15">
-        <v>9.121740089205973</v>
+        <v>13.17986158809921</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.0704891148598</v>
+        <v>14.46412136805076</v>
       </c>
       <c r="N15">
-        <v>18.77357687604729</v>
+        <v>11.55791348310672</v>
       </c>
       <c r="O15">
-        <v>22.28194111592446</v>
+        <v>14.33542116802351</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.01652370167615</v>
+        <v>14.88087134617084</v>
       </c>
       <c r="C16">
-        <v>5.53777755453815</v>
+        <v>7.299793119884209</v>
       </c>
       <c r="D16">
-        <v>11.25169150693329</v>
+        <v>9.789253915324528</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.94903986372527</v>
+        <v>22.26968432977241</v>
       </c>
       <c r="G16">
-        <v>29.8500651944312</v>
+        <v>22.66973549981028</v>
       </c>
       <c r="H16">
-        <v>14.56426885147252</v>
+        <v>8.665871426822324</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.37740826748608</v>
+        <v>7.280914156085203</v>
       </c>
       <c r="K16">
-        <v>8.992393600051843</v>
+        <v>12.81564729508198</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.00040822679659</v>
+        <v>14.07145788330307</v>
       </c>
       <c r="N16">
-        <v>18.80848501866759</v>
+        <v>11.68326082290547</v>
       </c>
       <c r="O16">
-        <v>22.3163866066627</v>
+        <v>14.30144671158852</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.900767313740582</v>
+        <v>14.58112923700275</v>
       </c>
       <c r="C17">
-        <v>5.495470664892718</v>
+        <v>7.202774881318909</v>
       </c>
       <c r="D17">
-        <v>11.22635405865842</v>
+        <v>9.638964564332747</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.95716134185573</v>
+        <v>22.11119813709184</v>
       </c>
       <c r="G17">
-        <v>29.86304231307588</v>
+        <v>22.50534033053406</v>
       </c>
       <c r="H17">
-        <v>14.57933655938166</v>
+        <v>8.68059095432206</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.3816519600545</v>
+        <v>7.246361318184613</v>
       </c>
       <c r="K17">
-        <v>8.9123364787488</v>
+        <v>12.58712666923315</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.95790005132991</v>
+        <v>13.84428461374069</v>
       </c>
       <c r="N17">
-        <v>18.83032065444807</v>
+        <v>11.76072642278838</v>
       </c>
       <c r="O17">
-        <v>22.33862610519606</v>
+        <v>14.28421238391857</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.833670560102973</v>
+        <v>14.40602548118011</v>
       </c>
       <c r="C18">
-        <v>5.470945065567119</v>
+        <v>7.146385033581963</v>
       </c>
       <c r="D18">
-        <v>11.21194446245763</v>
+        <v>9.551882685493442</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.96249039201083</v>
+        <v>22.02151563394398</v>
       </c>
       <c r="G18">
-        <v>29.87131904101686</v>
+        <v>22.41302279799081</v>
       </c>
       <c r="H18">
-        <v>14.58819972786349</v>
+        <v>8.689622311052577</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.38425319226677</v>
+        <v>7.22684084093289</v>
       </c>
       <c r="K18">
-        <v>8.866045598109176</v>
+        <v>12.45382162470873</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.93363442815362</v>
+        <v>13.71242087134915</v>
       </c>
       <c r="N18">
-        <v>18.84303483234289</v>
+        <v>11.80549768603433</v>
       </c>
       <c r="O18">
-        <v>22.35182467038623</v>
+        <v>14.27559560537636</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.81086623890652</v>
+        <v>14.34627377456984</v>
       </c>
       <c r="C19">
-        <v>5.462608717077947</v>
+        <v>7.127192446766226</v>
       </c>
       <c r="D19">
-        <v>11.20709409097983</v>
+        <v>9.522290621474998</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.96440770217553</v>
+        <v>21.99140435515744</v>
       </c>
       <c r="G19">
-        <v>29.87426087966305</v>
+        <v>22.38214914332087</v>
       </c>
       <c r="H19">
-        <v>14.59123441931052</v>
+        <v>8.69277587704835</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.38516147974973</v>
+        <v>7.220292150720262</v>
       </c>
       <c r="K19">
-        <v>8.850331902599782</v>
+        <v>12.40836674380191</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.92545066564112</v>
+        <v>13.66757085041451</v>
       </c>
       <c r="N19">
-        <v>18.84736626892296</v>
+        <v>11.82069396671165</v>
       </c>
       <c r="O19">
-        <v>22.35636334972688</v>
+        <v>14.27289783424318</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.913143786268078</v>
+        <v>14.61331653360904</v>
       </c>
       <c r="C20">
-        <v>5.499994282960022</v>
+        <v>7.213163667965963</v>
       </c>
       <c r="D20">
-        <v>11.22903439621002</v>
+        <v>9.655029810518004</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.95622872032517</v>
+        <v>22.12791675460845</v>
       </c>
       <c r="G20">
-        <v>29.86157675146319</v>
+        <v>22.52260861569696</v>
       </c>
       <c r="H20">
-        <v>14.57771222774886</v>
+        <v>8.678965230668181</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.38118361640282</v>
+        <v>7.25000293052224</v>
       </c>
       <c r="K20">
-        <v>8.920884325779117</v>
+        <v>12.61164629791449</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.96240621542107</v>
+        <v>13.86859241762124</v>
       </c>
       <c r="N20">
-        <v>18.82798018966336</v>
+        <v>11.75245794844175</v>
       </c>
       <c r="O20">
-        <v>22.33621654326863</v>
+        <v>14.28591220307825</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.25044983403513</v>
+        <v>15.4783499447767</v>
       </c>
       <c r="C21">
-        <v>5.623274339660179</v>
+        <v>7.494929917655972</v>
       </c>
       <c r="D21">
-        <v>11.30468336063652</v>
+        <v>10.09322544571075</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.93660643137943</v>
+        <v>22.60416165518009</v>
       </c>
       <c r="G21">
-        <v>29.82867487977078</v>
+        <v>23.02133204871294</v>
       </c>
       <c r="H21">
-        <v>14.53462834799583</v>
+        <v>8.639416323042795</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.36973378270234</v>
+        <v>7.35405529351048</v>
       </c>
       <c r="K21">
-        <v>9.154903645941639</v>
+        <v>13.27231981618873</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.08872736142812</v>
+        <v>14.57993664667677</v>
       </c>
       <c r="N21">
-        <v>18.76469405858969</v>
+        <v>11.52572224300477</v>
       </c>
       <c r="O21">
-        <v>22.27339085316854</v>
+        <v>14.34533235125025</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.46583122314476</v>
+        <v>16.01985995829659</v>
       </c>
       <c r="C22">
-        <v>5.702021895699424</v>
+        <v>7.673659619289055</v>
       </c>
       <c r="D22">
-        <v>11.35550709249551</v>
+        <v>10.37348561102552</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.92963497700007</v>
+        <v>22.92842915986466</v>
       </c>
       <c r="G22">
-        <v>29.81442419368351</v>
+        <v>23.36735671866581</v>
       </c>
       <c r="H22">
-        <v>14.50822032769972</v>
+        <v>8.618912065087239</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.36367602817076</v>
+        <v>7.425222912639061</v>
       </c>
       <c r="K22">
-        <v>9.305347798321584</v>
+        <v>13.68743548332649</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.172794791162</v>
+        <v>15.09939751632845</v>
       </c>
       <c r="N22">
-        <v>18.72470546882947</v>
+        <v>11.37932390537697</v>
       </c>
       <c r="O22">
-        <v>22.23596118075524</v>
+        <v>14.39633873243587</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.35136300654654</v>
+        <v>15.73301679755172</v>
       </c>
       <c r="C23">
-        <v>5.660165008764576</v>
+        <v>7.578772420825695</v>
       </c>
       <c r="D23">
-        <v>11.32825874445778</v>
+        <v>10.22448473314192</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.93282057181001</v>
+        <v>22.75417711634389</v>
       </c>
       <c r="G23">
-        <v>29.82136581388931</v>
+        <v>23.18083452524956</v>
       </c>
       <c r="H23">
-        <v>14.52215473281228</v>
+        <v>8.629351219800569</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.36677888789025</v>
+        <v>7.386949288930847</v>
       </c>
       <c r="K23">
-        <v>9.225296933455205</v>
+        <v>13.46740737915971</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.12779463365132</v>
+        <v>14.82416373584852</v>
       </c>
       <c r="N23">
-        <v>18.74592286934174</v>
+        <v>11.45730239626963</v>
       </c>
       <c r="O23">
-        <v>22.25560561348216</v>
+        <v>14.36797175005854</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.907550081032547</v>
+        <v>14.59877331193612</v>
       </c>
       <c r="C24">
-        <v>5.497949785628894</v>
+        <v>7.208468803939012</v>
       </c>
       <c r="D24">
-        <v>11.2278221249851</v>
+        <v>9.647768821092082</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.95664830293608</v>
+        <v>22.12035380195981</v>
       </c>
       <c r="G24">
-        <v>29.86223679026556</v>
+        <v>22.5147947876219</v>
       </c>
       <c r="H24">
-        <v>14.57844596338898</v>
+        <v>8.679698451726505</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.38139485155646</v>
+        <v>7.248355485023023</v>
       </c>
       <c r="K24">
-        <v>8.917020665747684</v>
+        <v>12.60056697046825</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.96036843866828</v>
+        <v>13.85760677385972</v>
       </c>
       <c r="N24">
-        <v>18.82903781351558</v>
+        <v>11.75619539151171</v>
       </c>
       <c r="O24">
-        <v>22.33730462050168</v>
+        <v>14.28513969926696</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.409415489658009</v>
+        <v>13.27198420766658</v>
       </c>
       <c r="C25">
-        <v>5.315720508366059</v>
+        <v>6.786735675550601</v>
       </c>
       <c r="D25">
-        <v>11.12578943403433</v>
+        <v>9.001611960216231</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.00749624145874</v>
+        <v>21.49306154403284</v>
       </c>
       <c r="G25">
-        <v>29.93737371024552</v>
+        <v>21.88171196859454</v>
       </c>
       <c r="H25">
-        <v>14.6466831570744</v>
+        <v>8.755443204837588</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.40329286815645</v>
+        <v>7.11235245261946</v>
       </c>
       <c r="K25">
-        <v>8.575385849012971</v>
+        <v>11.5943025869149</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.78687646770586</v>
+        <v>12.87479572715876</v>
       </c>
       <c r="N25">
-        <v>18.92461715312961</v>
+        <v>12.0868931822499</v>
       </c>
       <c r="O25">
-        <v>22.44098607698325</v>
+        <v>14.24494675683949</v>
       </c>
     </row>
   </sheetData>
